--- a/Exercises.xlsx
+++ b/Exercises.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arbeit\Aufgaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlo\Documents\GitHub\BPP_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF11D053-7C45-4C29-9427-911843C5305D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C713987E-54E4-40E2-B39D-52B527C90743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCCDA8D1-5BFF-4029-A46C-BEBD199472D4}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Lösung</t>
   </si>
   <si>
-    <t> Write a program in C++ to print the sum of two numbers.</t>
-  </si>
-  <si>
     <t>Write a program in C++ to find Size of fundamental data types.</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>Siehe .txt datei</t>
-  </si>
-  <si>
-    <t> Write a program in C++ to print the sum of two numbers using variables</t>
   </si>
   <si>
     <t>Write a program in C++ to display various type or arithmetic operation using mixed data type. </t>
@@ -1820,6 +1814,12 @@
   </si>
   <si>
     <t>class Car : public Vehicle</t>
+  </si>
+  <si>
+    <t> Write a program in C++ to print the sum of two numbers (number: 29 and number 2: 30).</t>
+  </si>
+  <si>
+    <t> Write a program in C++ to print the sum of two numbers using variables( x = 29 and y = 30)</t>
   </si>
 </sst>
 </file>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC5F423-E904-459E-BC5C-D6FC5517F426}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,21 +2298,21 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2398,13 +2398,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2412,30 +2412,30 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2445,13 +2445,13 @@
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2461,13 +2461,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2477,13 +2477,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2525,14 +2525,14 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17">
@@ -2541,13 +2541,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -2569,13 +2569,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -2583,16 +2583,16 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -2600,16 +2600,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -2631,16 +2631,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24">
@@ -2649,16 +2649,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25">
@@ -2667,16 +2667,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26">
@@ -2685,13 +2685,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2701,16 +2701,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28">
@@ -2719,16 +2719,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29">
@@ -2737,16 +2737,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30">
@@ -2755,16 +2755,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31">
@@ -2773,16 +2773,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32">
@@ -2791,16 +2791,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33">
@@ -2809,16 +2809,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34">
@@ -2827,16 +2827,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35">
@@ -2845,16 +2845,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36">
@@ -2863,16 +2863,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37">
@@ -2881,16 +2881,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38">
@@ -2899,16 +2899,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39">
@@ -2917,16 +2917,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40">
@@ -2935,16 +2935,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41">
@@ -2953,16 +2953,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42">
@@ -2971,16 +2971,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43">
@@ -2989,16 +2989,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44">
@@ -3007,16 +3007,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45">
@@ -3025,16 +3025,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46">
@@ -3043,16 +3043,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47">
@@ -3061,16 +3061,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48">
@@ -3079,16 +3079,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49">
@@ -3097,14 +3097,14 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50">
@@ -3113,14 +3113,14 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51">
@@ -3129,16 +3129,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52">
@@ -3147,16 +3147,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53">
@@ -3165,16 +3165,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54">
@@ -3183,16 +3183,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55">
@@ -3201,16 +3201,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56">
@@ -3219,16 +3219,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57">
